--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/nhs/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79EA042-E996-3B4A-AD30-B1F72B4F8DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D846A-1D9D-5E42-A9AB-EC0A81A91084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17780" yWindow="-28300" windowWidth="30560" windowHeight="27180" activeTab="4" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
+    <workbookView xWindow="-17780" yWindow="-27620" windowWidth="30560" windowHeight="27180" activeTab="6" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Design" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="nurse" sheetId="6" r:id="rId3"/>
     <sheet name="day" sheetId="4" r:id="rId4"/>
     <sheet name="week" sheetId="2" r:id="rId5"/>
-    <sheet name="schedule_priority" sheetId="8" r:id="rId6"/>
-    <sheet name="shift" sheetId="3" r:id="rId7"/>
+    <sheet name="request" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="schedule_priority" sheetId="8" r:id="rId8"/>
+    <sheet name="shift" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="235">
   <si>
     <t>2024-9-14</t>
   </si>
@@ -642,6 +644,111 @@
   </si>
   <si>
     <t>month</t>
+  </si>
+  <si>
+    <t>priority_user</t>
+  </si>
+  <si>
+    <t>priority_computed</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>8/1</t>
+  </si>
+  <si>
+    <t>8/2</t>
+  </si>
+  <si>
+    <t>8/3</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <t>8/5</t>
+  </si>
+  <si>
+    <t>8/6</t>
+  </si>
+  <si>
+    <t>8/7</t>
+  </si>
+  <si>
+    <t>8/8</t>
+  </si>
+  <si>
+    <t>8/9</t>
+  </si>
+  <si>
+    <t>8/10</t>
+  </si>
+  <si>
+    <t>8/11</t>
+  </si>
+  <si>
+    <t>8/12</t>
+  </si>
+  <si>
+    <t>8/13</t>
+  </si>
+  <si>
+    <t>8/14</t>
+  </si>
+  <si>
+    <t>8/15</t>
+  </si>
+  <si>
+    <t>8/16</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>8/18</t>
+  </si>
+  <si>
+    <t>8/19</t>
+  </si>
+  <si>
+    <t>8/20</t>
+  </si>
+  <si>
+    <t>8/21</t>
+  </si>
+  <si>
+    <t>8/22</t>
+  </si>
+  <si>
+    <t>8/23</t>
+  </si>
+  <si>
+    <t>8/24</t>
+  </si>
+  <si>
+    <t>8/25</t>
+  </si>
+  <si>
+    <t>8/26</t>
+  </si>
+  <si>
+    <t>8/27</t>
+  </si>
+  <si>
+    <t>8/28</t>
+  </si>
+  <si>
+    <t>8/29</t>
+  </si>
+  <si>
+    <t>8/30</t>
+  </si>
+  <si>
+    <t>8/31</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -3146,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5603CB16-93C0-C14F-BA34-E42A0780428B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3322,6 +3429,2783 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FECE7B-F9DD-D847-8BD5-BFF22F864DE3}">
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67">
+        <v>39</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69">
+        <v>40</v>
+      </c>
+      <c r="C69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72">
+        <v>41</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75">
+        <v>43</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78">
+        <v>46</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84">
+        <v>52</v>
+      </c>
+      <c r="C84" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86">
+        <v>54</v>
+      </c>
+      <c r="C86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91">
+        <v>57</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92">
+        <v>58</v>
+      </c>
+      <c r="C92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93">
+        <v>59</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94">
+        <v>60</v>
+      </c>
+      <c r="C94" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B96">
+        <v>62</v>
+      </c>
+      <c r="C96" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F70E4B6-B4D6-8346-AEF2-C5473E126D2F}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>42</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>50</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>54</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>54</v>
+      </c>
+      <c r="B64" s="1">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>57</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>59</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576997F4-6473-C64C-9C6A-4AB36C8EA13A}">
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -3842,12 +6726,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7006C3E6-2096-2047-B7FD-93A4752D6288}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/personal/nhs/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D846A-1D9D-5E42-A9AB-EC0A81A91084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA51C7F-2523-0A45-AA41-8BC8BB711E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17780" yWindow="-27620" windowWidth="30560" windowHeight="27180" activeTab="6" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
+    <workbookView xWindow="18320" yWindow="880" windowWidth="22800" windowHeight="24580" activeTab="5" xr2:uid="{9F0F0AC9-5C7F-464B-8849-597E840CF182}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Design" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="235">
   <si>
     <t>2024-9-14</t>
   </si>
@@ -3430,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FECE7B-F9DD-D847-8BD5-BFF22F864DE3}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3590,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -3601,16 +3601,13 @@
         <v>204</v>
       </c>
       <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3624,7 +3621,7 @@
         <v>234</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -3641,7 +3638,7 @@
         <v>234</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -3658,7 +3655,7 @@
         <v>234</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -3675,18 +3672,27 @@
         <v>234</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3694,16 +3700,7 @@
         <v>205</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3717,7 +3714,7 @@
         <v>234</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -3734,10 +3731,10 @@
         <v>234</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3751,10 +3748,10 @@
         <v>234</v>
       </c>
       <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>6</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3768,7 +3765,7 @@
         <v>234</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -3785,7 +3782,7 @@
         <v>234</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -3802,24 +3799,27 @@
         <v>234</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3827,24 +3827,24 @@
         <v>206</v>
       </c>
       <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>234</v>
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3852,27 +3852,27 @@
         <v>207</v>
       </c>
       <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
       <c r="E26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -3883,30 +3883,30 @@
         <v>208</v>
       </c>
       <c r="B28">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>234</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3914,30 +3914,30 @@
         <v>209</v>
       </c>
       <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>234</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3945,16 +3945,13 @@
         <v>210</v>
       </c>
       <c r="B32">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3968,7 +3965,7 @@
         <v>234</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -3985,10 +3982,10 @@
         <v>234</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4002,10 +3999,10 @@
         <v>234</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4019,7 +4016,7 @@
         <v>234</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -4027,13 +4024,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>234</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -4044,16 +4044,13 @@
         <v>211</v>
       </c>
       <c r="B38">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -4067,7 +4064,7 @@
         <v>234</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -4084,7 +4081,7 @@
         <v>234</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -4092,10 +4089,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4103,16 +4109,7 @@
         <v>212</v>
       </c>
       <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4126,21 +4123,24 @@
         <v>234</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>234</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -4151,18 +4151,24 @@
         <v>213</v>
       </c>
       <c r="B45">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
-        <v>234</v>
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4170,24 +4176,18 @@
         <v>214</v>
       </c>
       <c r="B47">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48">
-        <v>25</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4198,10 +4198,10 @@
         <v>25</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4209,16 +4209,13 @@
         <v>215</v>
       </c>
       <c r="B50">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4232,10 +4229,10 @@
         <v>234</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4249,7 +4246,7 @@
         <v>234</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4266,10 +4263,10 @@
         <v>234</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -4283,24 +4280,27 @@
         <v>234</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -4308,30 +4308,30 @@
         <v>216</v>
       </c>
       <c r="B56">
-        <v>28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>234</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -4339,18 +4339,24 @@
         <v>217</v>
       </c>
       <c r="B58">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>234</v>
+        <v>29</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -4358,18 +4364,18 @@
         <v>218</v>
       </c>
       <c r="B60">
-        <v>32</v>
-      </c>
-      <c r="C60" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B61">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -4377,18 +4383,18 @@
         <v>219</v>
       </c>
       <c r="B62">
-        <v>34</v>
-      </c>
-      <c r="C62" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B63">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -4396,18 +4402,18 @@
         <v>220</v>
       </c>
       <c r="B64">
-        <v>36</v>
-      </c>
-      <c r="C64" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B65">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4415,27 +4421,21 @@
         <v>221</v>
       </c>
       <c r="B66">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B67">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>234</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -4446,16 +4446,13 @@
         <v>222</v>
       </c>
       <c r="B68">
-        <v>40</v>
-      </c>
-      <c r="C68" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4469,10 +4466,10 @@
         <v>234</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4486,10 +4483,10 @@
         <v>234</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4503,24 +4500,27 @@
         <v>234</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B72">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>234</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4528,13 +4528,10 @@
         <v>223</v>
       </c>
       <c r="B73">
-        <v>42</v>
-      </c>
-      <c r="C73" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4551,7 +4548,7 @@
         <v>234</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4559,16 +4556,19 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B75">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4576,18 +4576,24 @@
         <v>224</v>
       </c>
       <c r="B76">
-        <v>44</v>
-      </c>
-      <c r="C76" t="s">
-        <v>234</v>
+        <v>43</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4595,18 +4601,18 @@
         <v>225</v>
       </c>
       <c r="B78">
-        <v>46</v>
-      </c>
-      <c r="C78" t="s">
-        <v>234</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4614,18 +4620,18 @@
         <v>226</v>
       </c>
       <c r="B80">
-        <v>48</v>
-      </c>
-      <c r="C80" t="s">
-        <v>234</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B81">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4633,24 +4639,24 @@
         <v>227</v>
       </c>
       <c r="B82">
-        <v>50</v>
-      </c>
-      <c r="C82" t="s">
-        <v>234</v>
-      </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B83">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4658,18 +4664,18 @@
         <v>228</v>
       </c>
       <c r="B84">
-        <v>52</v>
-      </c>
-      <c r="C84" t="s">
-        <v>234</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B85">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4677,16 +4683,7 @@
         <v>229</v>
       </c>
       <c r="B86">
-        <v>54</v>
-      </c>
-      <c r="C86" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4700,7 +4697,7 @@
         <v>234</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -4708,10 +4705,19 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B88">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C88" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4719,16 +4725,7 @@
         <v>230</v>
       </c>
       <c r="B89">
-        <v>56</v>
-      </c>
-      <c r="C89" t="s">
-        <v>234</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4742,7 +4739,7 @@
         <v>234</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -4750,13 +4747,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B91">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>234</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -4767,24 +4767,24 @@
         <v>231</v>
       </c>
       <c r="B92">
-        <v>58</v>
-      </c>
-      <c r="C92" t="s">
-        <v>234</v>
+        <v>57</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B93">
-        <v>59</v>
-      </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C93" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4792,18 +4792,24 @@
         <v>232</v>
       </c>
       <c r="B94">
-        <v>60</v>
-      </c>
-      <c r="C94" t="s">
-        <v>234</v>
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B95">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="C95" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4811,9 +4817,17 @@
         <v>233</v>
       </c>
       <c r="B96">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97">
         <v>62</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4827,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F70E4B6-B4D6-8346-AEF2-C5473E126D2F}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
